--- a/templates/AutomationOrg/RSTK-9221_Inspection Order.xlsx
+++ b/templates/AutomationOrg/RSTK-9221_Inspection Order.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\Chandra Demo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B34E1D-844E-4D2F-B996-1DD68DFEFE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC941A32-BBD4-4516-9A14-FE79FD0A993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7ACD737-F1F1-468A-BFEB-E2B903BD5603}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Inventory Item</t>
   </si>
@@ -72,13 +72,7 @@
     <t>LT3</t>
   </si>
   <si>
-    <t>multidiv no track (no track)</t>
-  </si>
-  <si>
     <t>multidiv serial (Lot and serial track)</t>
-  </si>
-  <si>
-    <t>multidiv Serial track (Serial track)</t>
   </si>
   <si>
     <t>MS-all</t>
@@ -433,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9AC654-054F-43ED-A4CC-2D592CCB28A6}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -501,10 +495,10 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -513,46 +507,6 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/templates/AutomationOrg/RSTK-9221_Inspection Order.xlsx
+++ b/templates/AutomationOrg/RSTK-9221_Inspection Order.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\Chandra Demo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC941A32-BBD4-4516-9A14-FE79FD0A993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B34E1D-844E-4D2F-B996-1DD68DFEFE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7ACD737-F1F1-468A-BFEB-E2B903BD5603}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Inventory Item</t>
   </si>
@@ -72,7 +72,13 @@
     <t>LT3</t>
   </si>
   <si>
+    <t>multidiv no track (no track)</t>
+  </si>
+  <si>
     <t>multidiv serial (Lot and serial track)</t>
+  </si>
+  <si>
+    <t>multidiv Serial track (Serial track)</t>
   </si>
   <si>
     <t>MS-all</t>
@@ -427,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9AC654-054F-43ED-A4CC-2D592CCB28A6}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -495,10 +501,10 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -507,6 +513,46 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
